--- a/Solution/PHS.BusinessTests/Files/no data file.xlsx
+++ b/Solution/PHS.BusinessTests/Files/no data file.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e0015387\Source\Repos\phs\Solution\PHS.BusinessTests\Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Phase-1 Follow-up Volunteer</t>
   </si>
@@ -26,18 +31,6 @@
   </si>
   <si>
     <t>Phase-2 Committee Member</t>
-  </si>
-  <si>
-    <t>Volunteer1</t>
-  </si>
-  <si>
-    <t>Volunteer2</t>
-  </si>
-  <si>
-    <t>Volunteer3</t>
-  </si>
-  <si>
-    <t>Volunteer4</t>
   </si>
 </sst>
 </file>
@@ -575,6 +568,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -622,7 +618,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -657,7 +653,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -866,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,20 +890,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
